--- a/biology/Zoologie/Gerbille_du_Baluchistan/Gerbille_du_Baluchistan.xlsx
+++ b/biology/Zoologie/Gerbille_du_Baluchistan/Gerbille_du_Baluchistan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbillus nanus
-La Gerbille du Baluchistan[1] (Gerbillus nanus ou Gerbillus (Gerbillus) nanus) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre au nord ouest de l'Afrique et au Moyen-Orient.
+La Gerbille du Baluchistan (Gerbillus nanus ou Gerbillus (Gerbillus) nanus) est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés que l'on rencontre au nord ouest de l'Afrique et au Moyen-Orient.
 </t>
         </is>
       </c>
